--- a/config_debug/sysjjj_config.xlsx
+++ b/config_debug/sysjjj_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>line</t>
   </si>
@@ -72,6 +72,34 @@
   </si>
   <si>
     <t>加倍领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui_condikey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"豪华周卡专享","豪华月卡专享",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_week_limit,jjj_month_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_week_limit,jjj_month_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +118,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -441,7 +470,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" sqref="G1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,6 +480,9 @@
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -472,9 +504,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -499,9 +537,15 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -526,9 +570,15 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -553,9 +603,15 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -580,9 +636,15 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>

--- a/config_debug/sysjjj_config.xlsx
+++ b/config_debug/sysjjj_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>line</t>
   </si>
@@ -95,11 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jjj_week_limit,jjj_month_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj_week_limit,jjj_month_limit</t>
+    <t>"jjj_week_limit","jjj_month_limit"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +466,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>19</v>

--- a/config_debug/sysjjj_config.xlsx
+++ b/config_debug/sysjjj_config.xlsx
@@ -96,24 +96,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>GAME_Di_Bao</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_tips</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jjj_3dby_cpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME_Di_Bao_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +471,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -577,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>5000</v>
